--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoebej/GitHub/EnterpriseSizeJudgment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythb\Github\EnterpriseSizeJudgment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF2057-D0DB-E44C-AB04-4801F5822ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF641EFA-E347-4CD5-BB81-032DF295E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="5560" windowWidth="25100" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2535" windowWidth="25095" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,32 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>A001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发生大幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsdvv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vdfv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不放过n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代发s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +81,42 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>测试b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,13 +127,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,21 +159,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,153 +447,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>659.08062786490757</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20331.580733915256</v>
+      </c>
+      <c r="F2" s="2">
+        <v>41957.864749705521</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>471.8776783248241</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40294.219942443269</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10397.860309917851</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>570.08744812781208</v>
+      </c>
+      <c r="E4" s="2">
+        <v>55410.919082684653</v>
+      </c>
+      <c r="F4" s="2">
+        <v>83881.16794094014</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>145.18530845266531</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11708.330712663728</v>
+      </c>
+      <c r="F5" s="2">
+        <v>82140.913017155268</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100000</v>
-      </c>
-      <c r="F2">
-        <v>900087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.0425916668063202</v>
+      </c>
+      <c r="E6" s="2">
+        <v>78178.145647531011</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24248.661834111284</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>101</v>
-      </c>
-      <c r="E3">
-        <v>100001</v>
-      </c>
-      <c r="F3">
-        <v>900088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>496.69523019454931</v>
+      </c>
+      <c r="E7" s="2">
+        <v>79373.695017206119</v>
+      </c>
+      <c r="F7" s="2">
+        <v>36599.107776497542</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>102</v>
-      </c>
-      <c r="E4">
-        <v>100002</v>
-      </c>
-      <c r="F4">
-        <v>900089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>103</v>
-      </c>
-      <c r="E5">
-        <v>100003</v>
-      </c>
-      <c r="F5">
-        <v>900090</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>104</v>
-      </c>
-      <c r="E6">
-        <v>100004</v>
-      </c>
-      <c r="F6">
-        <v>900091</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>342.24289617644177</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41600.80538688782</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37525.468045857648</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F6">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>"I2=‘A'"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
